--- a/爬虫项目/接单项目/数据.xlsx
+++ b/爬虫项目/接单项目/数据.xlsx
@@ -4,11 +4,10 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="数据" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
   <si>
     <t>单位</t>
   </si>
@@ -51,745 +50,868 @@
     <t>限制范围或说明</t>
   </si>
   <si>
-    <t>必维申美商品检测（上海）有限公司</t>
-  </si>
-  <si>
-    <t>上海市闵行区光中路368号,上海市闵行区光中路639号,上海市闵行区光华路128号,上海市闵行区光华路168号,上海市松江区莘砖公路829号B楼一楼101-102</t>
-  </si>
-  <si>
-    <t>24166908</t>
-  </si>
-  <si>
-    <t>150911340812</t>
-  </si>
-  <si>
-    <t>2015-08-25</t>
-  </si>
-  <si>
-    <t>2021-08-24</t>
-  </si>
-  <si>
-    <t>2018-07-16</t>
-  </si>
-  <si>
-    <t>水和废水/环境与环保/水和废水</t>
-  </si>
-  <si>
-    <t>半挥发性有机物</t>
-  </si>
-  <si>
-    <t>半挥发性有机化合物的测定/EPA 8270E：2017</t>
-  </si>
-  <si>
-    <t>只测萘, 苊烯, 苊, 芴, 菲, 蒽, 荧蒽, 芘, 苯并(a)蒽, 屈, 苯并(b)荧蒽, 苯并(k)荧蒽, 苯并(a)芘, 茚并(1,2,3-cd)芘, 二苯并(a,h)蒽, 苯并(g.h.i)苝, 2-甲基萘, 2-氯萘, 苯酚, 2-氯酚, 2-甲酚, 3-甲酚,4-甲酚, 2-硝基酚, 4-硝基酚, 2,4-二甲酚, 2,4-二氯酚, 3-甲基-4-氯苯酚, 2,4,6-三氯苯酚, 2,4,5-三氯苯酚, 五氯苯酚, 2,4-二硝基酚, 2-甲基-4,6-二硝基酚, 邻苯二甲酸二甲酯, 邻苯二甲酸二乙酯, 邻苯二甲酸二正丁酯, 邻苯二甲酸丁卞酯, 邻苯二甲酸双(2-乙基己酯), 邻苯二甲酸二辛酯, 硝基苯, 异佛乐酮, 2,4-二硝基甲苯, 2,6-二硝基甲苯, 偶氮苯, 2,2'-二氯二乙基醚, 2,2'-二氯二乙氧基甲烷, 4-氯苯基苯基醚, 4-溴苯基苯基醚, 双（2-氯异丙基）醚, N-亚硝基二正丙基胺, 1,3-二氯苯, 1,4-二氯苯, 1,2-二氯苯, 六氯乙烷, 1,2,4-三氯苯, 六氯丁二烯, 六氯环戊二烯, 六氯苯, 4-氯苯胺, 2-硝基苯胺, 3-硝基苯胺, 二苯并呋喃, 4-硝基苯胺, 咔唑, 敌敌畏, 乐果, 二嗪农, 甲基毒死蜱, 马拉硫磷, 倍硫磷, 毒死蜱, 嘧啶磷, 毒虫畏E&amp;Z;, 丙硫磷, 乙硫磷, 久效磷, 甲基对硫磷, 对硫磷, 乙基溴硫磷, 克线磷, 三硫磷, 甲基谷硫磷, 敌百虫, 呋喃丹, 内吸磷-O, 内吸磷-S, α-六六六, β-六六六, γ-六六六, τ-六六六, 七氯, 艾氏剂, 环氧七氯, 硫丹1, 4,4'-DDE, 狄氏剂, 异狄氏剂, 硫丹2, 4,4'-DDD, 硫酸硫丹, 4,4'-DDT, 反式－氯丹, 顺式－氯丹, 异狄氏剂酮, 异狄氏剂醛, 甲氧氯, 百菌清, 溴氰菊酯, 灭蚁灵, 2,4'-DDT, 3-甲基胆蒽, 2-乙酰氨基芴, 7,12-二甲基苯并(a)蒽, 2,6-二氯酚, 2,3,4,6-四氯苯酚, 2-甲基吡啶, 苯乙酮, 1-萘胺, 2-萘胺, 5-硝基-邻-甲基苯胺, 1,3,5-三硝基苯, 非那西汀, 五氯硝基苯, 4-氨基联苯, 戊炔草胺, N-氧-4-硝基喹啉, 二甲基氨基偶氮苯, 乙酯杀螨醇, 间-硝基氯苯, 对-硝基氯苯, 邻-硝基氯苯, 对-二硝基苯, 间-二硝基苯, 邻-二硝基苯, 2,4,6-三硝基甲苯, 甲萘威, N-(亚硝基)甲基乙胺, N-亚硝基二乙胺, 邻甲苯胺, N-亚硝基吡咯烷, N-亚硝基吗啉, N-亚硝基哌啶, N-亚硝基二丁胺, 二苯胺, N-亚硝基二苯胺, 美沙吡林, 六氯丙烯, 五氯苯, 1,2,3,5-四氯苯, 1,2,4,5-四氯苯, 1,2,3,4-四氯苯, 苯胺, 3,3'-二氯联苯氨, 2,4,4'-三氯联苯, 2,2',5,5'-四氯联苯, 2,2',4,5,5'-五氯联苯, 2,2',3,4,4',5-六氯联苯, 2,2',4,4',5,5'-六氯联苯, 2,2',3,4,4',5,5'-七氯联苯, 十氯联苯, 2,4-滴, 莠去津, 灭草松, 共计162项/扩项</t>
-  </si>
-  <si>
-    <t>土壤和沉积物/环境与环保/土壤、沉积物、固体废物</t>
-  </si>
-  <si>
-    <t>土壤和沉积物 半挥发性有机物的测定 气相色谱-质谱法/HJ 834-2017</t>
-  </si>
-  <si>
-    <t>服装/日用消费品/纺织产品</t>
-  </si>
-  <si>
-    <t>撕破性能</t>
-  </si>
-  <si>
-    <t>服装理化性能的检验方法/GB/T 21294-2014 9.4</t>
+    <t>上海雷羽检测技术有限公司</t>
+  </si>
+  <si>
+    <t>上海市闵行区平阳路1501号705室</t>
+  </si>
+  <si>
+    <t>64779797</t>
+  </si>
+  <si>
+    <t>180921341688</t>
+  </si>
+  <si>
+    <t>2018-12-21</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>接闪器、引下线、接地体、被保护物/建筑物防雷装置</t>
+  </si>
+  <si>
+    <t>尺寸</t>
+  </si>
+  <si>
+    <t>《防雷装置安全检测技术规范》（5.1.2、5.2.2、5.3.2、5.4.2）/DB31/T 389-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>《建筑物防雷装置检测技术规范》（5.2.1、5.3.1）/GB/T 21431-2015</t>
+  </si>
+  <si>
+    <t>接地装置/建筑物防雷装置</t>
+  </si>
+  <si>
+    <t>接地电阻</t>
+  </si>
+  <si>
+    <t>《防雷装置安全检测技术规范》（5.3.1.3.1）/DB31/T 389-2015</t>
+  </si>
+  <si>
+    <t>《建筑物防雷装置检测技术规范》（5.4.2.7）/GB/T 21431-2015</t>
+  </si>
+  <si>
+    <t>接闪器、引下线/建筑物防雷装置</t>
+  </si>
+  <si>
+    <t>垂直拉力</t>
+  </si>
+  <si>
+    <t>《防雷装置安全检测技术规范》（5.2.1.3.1、5.3.1.3.3）/DB31/T 389-2015</t>
+  </si>
+  <si>
+    <t>《建筑物防雷装置检测技术规范》（5.2.2.2、5.3.2.2）/GB/T 21431-2015</t>
+  </si>
+  <si>
+    <t>电涌保护器/建筑物防雷装置</t>
+  </si>
+  <si>
+    <t>压敏电压</t>
+  </si>
+  <si>
+    <t>《防雷装置安全检测技术规范》（5.8.3.1）/DB31/T 389-2015</t>
+  </si>
+  <si>
+    <t>《建筑物防雷装置检测技术规范》（5.8.5.1）/GB/T 21431-2015</t>
+  </si>
+  <si>
+    <t>泄漏电流</t>
+  </si>
+  <si>
+    <t>《防雷装置安全检测技术规范》（5.8.3.2）/DB31/T 389-2015</t>
+  </si>
+  <si>
+    <t>《建筑物防雷装置检测技术规范》（5.8.5.2）/GB/T 21431-2015</t>
+  </si>
+  <si>
+    <t>绝缘电阻</t>
+  </si>
+  <si>
+    <t>《防雷装置安全检测技术规范》（5.8.3.3）/DB31/T 389-2015</t>
+  </si>
+  <si>
+    <t>《建筑物防雷装置检测技术规范》（5.8.5.3）/GB/T 21431-2015</t>
+  </si>
+  <si>
+    <t>等电位连接/建筑物防雷装置</t>
+  </si>
+  <si>
+    <t>过渡电阻</t>
+  </si>
+  <si>
+    <t>《防雷装置安全检测技术规范》（5.7.2.11）/DB31/T 389-2015</t>
+  </si>
+  <si>
+    <t>《建筑物防雷装置检测技术规范》（5.7.2.11）/GB/T 21431-2015</t>
+  </si>
+  <si>
+    <t>上海稞莱蔓检测技术有限公司</t>
+  </si>
+  <si>
+    <t>金山区金山大道4688号2幢</t>
+  </si>
+  <si>
+    <t>37280653</t>
+  </si>
+  <si>
+    <t>180914341689</t>
+  </si>
+  <si>
+    <t>农药/化工产品/农药</t>
+  </si>
+  <si>
+    <t>热贮稳定性</t>
+  </si>
+  <si>
+    <t>农药热贮稳定性测定方法/GB/T 19136-2003</t>
+  </si>
+  <si>
+    <t>国际农药分析协作委员会 原药和制剂理化测试方法 J卷（2000年） 热贮稳定性/CIPAC MT 39.3</t>
+  </si>
+  <si>
+    <t>密度</t>
+  </si>
+  <si>
+    <t>农药密度测定方法/GB/T 32776-2016</t>
+  </si>
+  <si>
+    <t>水分</t>
+  </si>
+  <si>
+    <t>农药水分测定方法/GB/T 1600-2001</t>
+  </si>
+  <si>
+    <t>悬浮率</t>
+  </si>
+  <si>
+    <t>国际农药分析协作委员会 原药和制剂理化测试方法 F卷（1995年） 悬浮剂的悬浮率/CIPAC MT 161</t>
+  </si>
+  <si>
+    <t>细度</t>
+  </si>
+  <si>
+    <t>农药粉剂、可湿粉剂细度测定方法/GB/T 16150-1995</t>
+  </si>
+  <si>
+    <t>国际农药分析协作委员会 原药和制剂理化测试方法 K卷（2003年） 湿法筛分/CIPAC MT 185</t>
+  </si>
+  <si>
+    <t>水不溶物</t>
+  </si>
+  <si>
+    <t>国际农药分析协作委员会 原药和制剂理化测试方法 F卷（1995年） 水不溶物/CIPAC MT 10</t>
+  </si>
+  <si>
+    <t>二甲苯不溶物</t>
+  </si>
+  <si>
+    <t>国际农药分析协作委员会 原药和制剂理化测试方法 F卷（1995年）二甲苯不溶物/CIPAC MT 11</t>
+  </si>
+  <si>
+    <t>霜脲氰/化工产品/农药</t>
+  </si>
+  <si>
+    <t>霜脲氰含量</t>
+  </si>
+  <si>
+    <t>国际农药分析协作委员会 原药和制剂理化测试方法 J卷（1981年） 霜脲氰/CIPAC *419/TC/</t>
+  </si>
+  <si>
+    <t>无/无</t>
+  </si>
+  <si>
+    <t>嘧菌酯原药/化工产品/农药</t>
+  </si>
+  <si>
+    <t>嘧菌酯含量</t>
+  </si>
+  <si>
+    <t>嘧菌酯原药/GB/T 32341-2015 4.4</t>
+  </si>
+  <si>
+    <t>二氯吡啶酸原药/化工产品/农药</t>
+  </si>
+  <si>
+    <t>二氯吡啶酸含量</t>
+  </si>
+  <si>
+    <t>二氯吡啶酸原药/HG/T 5130-2016 4.4</t>
+  </si>
+  <si>
+    <t>干燥减量</t>
+  </si>
+  <si>
+    <t>农药干燥减量的测定方法/GB/T 30361-2013</t>
+  </si>
+  <si>
+    <t>pH值</t>
+  </si>
+  <si>
+    <t>农药pH值的测定方法/GB/T 1601-1993</t>
+  </si>
+  <si>
+    <t>酸(碱)度</t>
+  </si>
+  <si>
+    <t>农药酸(碱)度测定方法 指示剂法/GB/T 28135-2011</t>
+  </si>
+  <si>
+    <t>农药理化性质测定试验导则 第2部分：酸（碱）度/NY/T 1860.2-2016</t>
+  </si>
+  <si>
+    <t>乳液稳定性</t>
+  </si>
+  <si>
+    <t>农药乳液稳定性测定方法/GB/T 1603-2001</t>
+  </si>
+  <si>
+    <t>国际农药分析协作委员会 原药和制剂理化测试方法K卷（2003年） 乳油的乳化性能/CIPAC MT 36.3</t>
+  </si>
+  <si>
+    <t>润湿性</t>
+  </si>
+  <si>
+    <t>农药可湿性粉剂润湿性测定方法/GB/T 5451-2001</t>
+  </si>
+  <si>
+    <t>国际农药分析协作委员会 原药和制剂理化测试方法 F卷（1995年） 湿润性/CIPAC MT 53</t>
+  </si>
+  <si>
+    <t>谱尼测试集团上海有限公司</t>
+  </si>
+  <si>
+    <t>上海市徐汇区桂平路680号35幢2-4楼、6楼,上海市徐汇区钦江路333号37号楼102室、2楼,上海市徐汇区桂平路471号4幢1层,上海市松江区文翔东路99号6幢、7幢1层、7幢3层,上海市闵行区华宁路2888弄333号5幢1层6室,上海市徐汇区桂平路471号7幢6层</t>
+  </si>
+  <si>
+    <t>64851999</t>
+  </si>
+  <si>
+    <t>160920340809</t>
+  </si>
+  <si>
+    <t>2016-04-26</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2018-12-20</t>
+  </si>
+  <si>
+    <t>水质/水</t>
+  </si>
+  <si>
+    <t>石油类、动植物油类、总油</t>
+  </si>
+  <si>
+    <t>水质 石油类和动植物油类的测定 红外分光光度法/HJ 637-2018</t>
+  </si>
+  <si>
+    <t>项目名称为 石油类、动植物油类、油类</t>
+  </si>
+  <si>
+    <t>恒标检测技术（上海）有限公司</t>
+  </si>
+  <si>
+    <t>上海市闵行区都园路2060号5幢3楼312-322室</t>
+  </si>
+  <si>
+    <t>021-52265739</t>
+  </si>
+  <si>
+    <t>160920341131</t>
+  </si>
+  <si>
+    <t>2016-10-17</t>
+  </si>
+  <si>
+    <t>2022-10-16</t>
+  </si>
+  <si>
+    <t>2018-12-17</t>
+  </si>
+  <si>
+    <t>纺织品及其制品/纺织品及其制品</t>
+  </si>
+  <si>
+    <t>长度、幅</t>
+  </si>
+  <si>
+    <t>纺织品 织物长度和幅宽的测定/GB/T 4666-2009</t>
+  </si>
+  <si>
+    <t>//扩项</t>
+  </si>
+  <si>
+    <t>质量</t>
+  </si>
+  <si>
+    <t>纺织品 非织造布试验方法 第1部分：单位面积质量的测定/GB/T 24218.1-2009</t>
+  </si>
+  <si>
+    <t>毛巾/纺织品及其制品</t>
+  </si>
+  <si>
+    <t>毛巾产品单位面积质量测试方法/FZ/T 60046-2016</t>
+  </si>
+  <si>
+    <t>纺织品 机织物结构分析方法 第6部分:织物单位面积经纬纱线质量的测定/GB/T 29256.6-2012</t>
+  </si>
+  <si>
+    <t>厚度</t>
+  </si>
+  <si>
+    <t>纺织品和纺织制品厚度的测定/GB/T 3820-1997</t>
+  </si>
+  <si>
+    <t>涂层织物/纺织品及其制品</t>
+  </si>
+  <si>
+    <t>涂层织物 厚度试验方法/FZ/T 01003-1991</t>
+  </si>
+  <si>
+    <t>涂层织物 涂层厚度的测定/FZ/T 01006-2008</t>
+  </si>
+  <si>
+    <t>断裂强力和断裂伸长</t>
+  </si>
+  <si>
+    <t>涂层织物 伸长和拉伸永久变形试验方法/FZ/T 75004-2014</t>
+  </si>
+  <si>
+    <t>织物氯损强力试验方法/FZ/T 01077-2018</t>
+  </si>
+  <si>
+    <t>撕破强力</t>
+  </si>
+  <si>
+    <t>涂层织物 缝孔撕破强度试验方法/FZ/T 75008-1995</t>
+  </si>
+  <si>
+    <t>针织人造革服装/纺织品及其制品</t>
+  </si>
+  <si>
+    <t>剥离负荷</t>
+  </si>
+  <si>
+    <t>针织人造革服装/FZ/T 73028-2017 4.2.7</t>
+  </si>
+  <si>
+    <t>服装/纺织品及其制品</t>
+  </si>
+  <si>
+    <t>服装理化性能的检验方法/GB/T21294-2014 9.1</t>
+  </si>
+  <si>
+    <t>涂层织物 涂层剥离强力的测定/FZ/T 01010-2012</t>
+  </si>
+  <si>
+    <t>复合织物剥离强力试验方法/FZ/T 60011-2016</t>
+  </si>
+  <si>
+    <t>热熔粘合衬/纺织品及其制品</t>
+  </si>
+  <si>
+    <t>热熔粘合衬剥离强力试验方法/FZ/T 01085-2018</t>
+  </si>
+  <si>
+    <t>接缝强力</t>
+  </si>
+  <si>
+    <t>服装理化性能的检验方法/GB/T21294-2014 9.2.2</t>
+  </si>
+  <si>
+    <t>服装理化性能的检验方法/GB/T21294-2014 9.2.3</t>
+  </si>
+  <si>
+    <t>婴幼儿及儿童纺织产品/纺织品及其制品</t>
+  </si>
+  <si>
+    <t>附件抗拉强力</t>
+  </si>
+  <si>
+    <t>婴幼儿及儿童纺织产品安全技术规范/GB 31701-2015 附录A</t>
+  </si>
+  <si>
+    <t>纺织制品附件脱落强力试验方法/GB/T 32599-2016</t>
+  </si>
+  <si>
+    <t>婴幼儿服装/纺织品及其制品</t>
+  </si>
+  <si>
+    <t>婴幼儿服装/FZ/T 81014-2008 附录A</t>
+  </si>
+  <si>
+    <t>上海创蓝检测技术有限公司</t>
+  </si>
+  <si>
+    <t>上海市徐汇区钦江路333号38号楼301室</t>
+  </si>
+  <si>
+    <t>54661607</t>
+  </si>
+  <si>
+    <t>170912341428</t>
+  </si>
+  <si>
+    <t>2017-03-13</t>
+  </si>
+  <si>
+    <t>2023-03-12</t>
+  </si>
+  <si>
+    <t>环境空气/环境与环保/空气和废气</t>
+  </si>
+  <si>
+    <t>甲烷</t>
+  </si>
+  <si>
+    <t>环境空气 总烃、甲烷和非甲烷总烃的测定 直接进样-气相色谱法/HJ 604-2017</t>
+  </si>
+  <si>
+    <t>无/扩项</t>
+  </si>
+  <si>
+    <t>固定污染源废气/环境与环保/空气和废气</t>
+  </si>
+  <si>
+    <t>固定污染源废气 总烃、甲烷和非甲烷总烃的测定 气相色谱法/HJ 38-2017</t>
+  </si>
+  <si>
+    <t>总烃</t>
+  </si>
+  <si>
+    <t>非甲烷总烃</t>
+  </si>
+  <si>
+    <t>低浓度颗粒物</t>
+  </si>
+  <si>
+    <t>固定污染源废气 低浓度颗粒物的测定 重量法/HJ 836-2017</t>
+  </si>
+  <si>
+    <t>苯系物</t>
+  </si>
+  <si>
+    <t>环境空气 苯系物的测定 固体吸附热脱附-气相色谱法/HJ 583-2010</t>
+  </si>
+  <si>
+    <t>能测：苯、甲苯、乙苯、邻二甲苯、间二甲苯、对二甲苯、异丙苯、苯乙烯/扩项</t>
+  </si>
+  <si>
+    <t>环境空气 苯系物的测定 活性炭吸附二硫化碳解吸-气相色谱法/HJ 584-2010</t>
+  </si>
+  <si>
+    <t>挥发性有机物</t>
+  </si>
+  <si>
+    <t>固定污染源废气 挥发性有机物的测定 固相吸附-热脱附/气相色谱-质谱法/HJ 734-2014</t>
+  </si>
+  <si>
+    <t>能测：丙酮、异丙醇、正己烷、乙酸乙酯、苯、六甲基二硅氧烷、3-戊酮、正庚烷、甲苯、环戊酮、乳酸乙酯、乙酸丁酯、丙二醇单甲醚乙酸酯、乙苯、对/间二甲苯、2-庚酮、苯乙烯、邻二甲苯、苯甲醚、苯甲醛、1-癸烯、2-壬酮、1-十二烯/扩项</t>
+  </si>
+  <si>
+    <t>环境空气 挥发性有机物的测定 吸附管采样-热脱附/气相色谱-质谱法/HJ 644-2013</t>
+  </si>
+  <si>
+    <t>能测：1,1-二氯乙烯、1,1,2-三氯-1,2,2-三氟乙烷、氯丙烯、二氯甲烷、1,1-二氯乙烷、顺式-1,2-二氯乙烯、三氯甲烷、1,1,1-三氯乙烷、四氯甲烷、1,2-二氯乙烷、苯、三氯乙烯、1,2-二氯丙烷、反式-1,3-二氯丙烯、甲苯、顺式-1,3-二氯丙烯、1,1,2-三氯乙烷、四氯乙烯、1,2-二溴乙烷、氯苯、乙苯、间二甲苯、对二甲苯、邻二甲苯、苯乙烯、1,1,2,2-四氯乙烷、4-乙基甲苯、1,3,5-三甲基苯、1,2,4-三甲基苯、1,3-二氯苯、1,4-二氯苯、1,2-二氯苯、苄基氯、1,2,4-三氯苯、六氯丁二烯/扩项</t>
+  </si>
+  <si>
+    <t>挥发性卤代烃</t>
+  </si>
+  <si>
+    <t>环境空气 挥发性卤代烃的测定 活性炭吸附-二硫化碳解吸/气相色谱法/HJ 645-2013</t>
+  </si>
+  <si>
+    <t>能测：反-1,2-二氯乙烯、1,1-二氯乙烷、顺-1,2-二氯乙烯、三氯甲烷、1,2-二氯乙烷、1,1,1-三氯乙烷、四氯化碳、1,2-二氯丙烷、三氯乙烯、1,1,2-三氯乙烷、氯苯、四氯乙烯、1,4-二氯苯、1-溴-2-氯乙烷、三溴甲烷、1,1,2,2-四氯乙烷、1,2,3-三氯丙烷、苄基氯、1,3-二氯苯、1,2-二氯苯、六氯乙烷/扩项</t>
+  </si>
+  <si>
+    <t>二氧化硫</t>
+  </si>
+  <si>
+    <t>固定污染源废气 二氧化硫的测定 非分散红外吸收法/HJ 629-2011</t>
+  </si>
+  <si>
+    <t>环境空气 二氧化硫的测定 甲醛吸收-副玫瑰苯胺分光光度法/HJ 482-2009及修改单</t>
+  </si>
+  <si>
+    <t>固定污染源排气/环境与环保/空气和废气</t>
+  </si>
+  <si>
+    <t>一氧化碳</t>
+  </si>
+  <si>
+    <t>固定污染源排气中一氧化碳的测定 非色散红外吸收法/HJ/T 44-1999</t>
+  </si>
+  <si>
+    <t>饮食业油烟/环境与环保/空气和废气</t>
+  </si>
+  <si>
+    <t>油烟</t>
+  </si>
+  <si>
+    <t>《饮食业油烟排放标准(试行)》饮食业油烟采样方法及分析方法/GB 18483-2001 附录A</t>
+  </si>
+  <si>
+    <t>餐饮业油烟/环境与环保/空气和废气</t>
+  </si>
+  <si>
+    <t>《餐饮业油烟排放标准》餐饮油烟采样方法及分析方法/DB31/844-2014 附录A</t>
+  </si>
+  <si>
+    <t>油烟去除效率</t>
+  </si>
+  <si>
+    <t>饮食业油烟排放标准(试行)油烟去除效率的测定方法/GB 18483-2001 附录C</t>
+  </si>
+  <si>
+    <t>环境空气和废气/环境与环保/空气和废气</t>
+  </si>
+  <si>
+    <t>氯化氢</t>
+  </si>
+  <si>
+    <t>环境空气和废气 氯化氢的测定 离子色谱法/HJ 549-2016</t>
+  </si>
+  <si>
+    <t>固定污染源废气 氯化氢的测定 硝酸银容量法/HJ 548-2016</t>
+  </si>
+  <si>
+    <t>上海华测品标检测技术有限公司</t>
+  </si>
+  <si>
+    <t>上海市浦东新区新金桥路１９９６号１幢４楼,浦东新区龙东大道3000号张江集电港8号楼109室,上海市浦东新区新金桥路１９９６号１幢４楼,浦东新区龙东大道3000号张江集电港8号楼109室,上海市浦东新区新金桥路１９９６号１幢４楼,上海市浦东新区新金桥路１９９６号１幢４楼,上海市浦东新区新金桥路１９９６号１幢４楼,闸北区江场三路309号301-4、5室,上海市浦东新区新金桥路１９９６号１幢４楼,上海市浦东新区新金桥路１９９６号１幢４楼,上海市浦东新区新金桥路１９９６号１幢４楼,浦东新区龙东大道3000号张江集电港8号楼109室,,浦东新区新金桥路1996号1幢4楼,上海市浦东新区新金桥路１９９６号１幢４楼,浦东新区新金桥路1996号1幢4楼,上海市浦东新区新金桥路１９９６号１幢４楼,浦东新区新金桥路1996号1幢4楼,上海市浦东新区新金桥路１９９６号１幢４楼,上海浦东金桥加工区宁桥路999号5幢102室,上海市浦东新区新金桥路１９９６号１幢４楼</t>
+  </si>
+  <si>
+    <t>31073176</t>
+  </si>
+  <si>
+    <t>150900341277</t>
+  </si>
+  <si>
+    <t>2017-01-16</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>不锈钢水龙头/疾病防控/生活饮用水卫生</t>
+  </si>
+  <si>
+    <t>全部参数</t>
+  </si>
+  <si>
+    <t>不锈钢水龙头/GB/T 35763-2017 附录C</t>
   </si>
   <si>
     <t>/扩项</t>
   </si>
   <si>
-    <t>耐磨性</t>
-  </si>
-  <si>
-    <t>服装理化性能的检验方法/GB/T 21294-2014 9.5</t>
-  </si>
-  <si>
-    <t>起毛起球性能</t>
-  </si>
-  <si>
-    <t>服装理化性能的检验方法/GB/T 21294-2014 9.6</t>
-  </si>
-  <si>
-    <t>透湿率</t>
-  </si>
-  <si>
-    <t>服装理化性能的检验方法/GB/T 21294-2014 10.1</t>
-  </si>
-  <si>
-    <t>拒水性</t>
-  </si>
-  <si>
-    <t>服装理化性能的检验方法/GB/T 21294-2014 10.2</t>
-  </si>
-  <si>
-    <t>耐静水压</t>
-  </si>
-  <si>
-    <t>服装理化性能的检验方法/GB/T 21294-2014 10.3</t>
-  </si>
-  <si>
-    <t>防紫外线性能</t>
-  </si>
-  <si>
-    <t>服装理化性能的检验方法/GB/T 21294-2014 10.4</t>
-  </si>
-  <si>
-    <t>勾丝性能</t>
-  </si>
-  <si>
-    <t>服装理化性能的检验方法/GB/T 21294-2014 10.5</t>
-  </si>
-  <si>
-    <t>吸湿速干性</t>
-  </si>
-  <si>
-    <t>服装理化性能的检验方法/GB/T 21294-2014 10.6</t>
-  </si>
-  <si>
-    <t>拒油性</t>
-  </si>
-  <si>
-    <t>服装理化性能的检验方法/GB/T 21294-2014 10.7</t>
-  </si>
-  <si>
-    <t>防污性能</t>
-  </si>
-  <si>
-    <t>服装理化性能的检验方法/GB/T 21294-2014 10.8</t>
-  </si>
-  <si>
-    <t>不测5.1.1沾污物b/扩项</t>
-  </si>
-  <si>
-    <t>阻燃织物/日用消费品/纺织产品</t>
-  </si>
-  <si>
-    <t>部分参数</t>
-  </si>
-  <si>
-    <t>阻燃织物/GB/T 17591-2006</t>
-  </si>
-  <si>
-    <t>不测5.3汽车内饰用织物的燃烧性能和5.4火车内饰用织物的燃烧性能和5.9胀破强度和5.20弯曲长度和5.24外观疵点/扩项</t>
-  </si>
-  <si>
-    <t>专业运动服装和防护用品/日用消费品/纺织产品</t>
-  </si>
-  <si>
-    <t>全部参数</t>
-  </si>
-  <si>
-    <t>专业运动服装和防护用品通用技术规范/GB/T 21980-2017</t>
-  </si>
-  <si>
-    <t>//变更</t>
-  </si>
-  <si>
-    <t>弹性毛织物/日用消费品/纺织产品</t>
-  </si>
-  <si>
-    <t>弹性毛织物/FZ/T 24006-2015(2017)</t>
-  </si>
-  <si>
-    <t>//扩项</t>
-  </si>
-  <si>
-    <t>半精纺毛织品/日用消费品/纺织产品</t>
-  </si>
-  <si>
-    <t>半精纺毛织品/GB/T 22863-2009</t>
-  </si>
-  <si>
-    <t>精梳毛织品/日用消费品/纺织产品</t>
-  </si>
-  <si>
-    <t>精梳毛织品/GB/T 26382-2011</t>
-  </si>
-  <si>
-    <t>粗梳毛织品/日用消费品/纺织产品</t>
-  </si>
-  <si>
-    <t>粗梳毛织品/GB/T 26378-2011</t>
-  </si>
-  <si>
-    <t>不测4.2.8含油脂率/扩项</t>
-  </si>
-  <si>
-    <t>品升商品检测（上海）有限公司</t>
-  </si>
-  <si>
-    <t>上海市闵行区都会路1999号2幢302室</t>
-  </si>
-  <si>
-    <t>60376394</t>
-  </si>
-  <si>
-    <t>150900340940</t>
-  </si>
-  <si>
-    <t>2016-10-19</t>
-  </si>
-  <si>
-    <t>2021-12-23</t>
-  </si>
-  <si>
-    <t>食品/食品/非法添加</t>
-  </si>
-  <si>
-    <t>苏丹红</t>
-  </si>
-  <si>
-    <t>食品中苏丹红染料的检测方法  高效液相色谱法/GB/T 19681-2005</t>
-  </si>
-  <si>
-    <t>面膜/日化产品参数</t>
-  </si>
-  <si>
-    <t>外观</t>
-  </si>
-  <si>
-    <t>面膜/QB/T 2872－2017/6.1.1</t>
-  </si>
-  <si>
-    <t>/变更</t>
-  </si>
-  <si>
-    <t>食品/食品/微生物</t>
-  </si>
-  <si>
-    <t>寄生虫</t>
-  </si>
-  <si>
-    <t>进出口食品中寄生虫的检验方法/SN/T 1748-2006</t>
-  </si>
-  <si>
-    <t>塑料/食品相关产品参数/食品接触材料</t>
-  </si>
-  <si>
-    <t>总迁移)异辛烷(</t>
-  </si>
-  <si>
-    <t>接触食品的材料和制品 塑料 第8部分：全迁移到橄榄油中的充填物品试验方法/EN 1186-8-2002</t>
-  </si>
-  <si>
-    <t>接触食品的材料和制品 塑料 第14部分：使用试验介质异辛烷和95%乙醇的从塑料到与之接触的脂肪类食品的整理移动的“替代试验”试验方法/EN 1186-14-2002</t>
-  </si>
-  <si>
-    <t>总迁移)橄榄油(</t>
-  </si>
-  <si>
-    <t>接触食品的材料和制品 塑料 第2部分:全迁移到橄榄油中的全浸没试验方法/EN 1186-2-2002</t>
-  </si>
-  <si>
-    <t>接触食品的材料和制品 塑料 第4部分：全迁移到橄榄油中的电解槽试验方法/EN 1186-4-2002</t>
-  </si>
-  <si>
-    <t>接触食品的材料和制品 塑料 第6部分：全迁移到橄榄油中的袋装试验方法/EN 1186-6-2002</t>
-  </si>
-  <si>
-    <t>总迁移)干性模拟液(</t>
-  </si>
-  <si>
-    <t>接触食品的材料和制品 塑料 第13部分:全迁移的高温试验方法/EN 1186-13-2002</t>
-  </si>
-  <si>
-    <t>食品模拟物/食品相关产品参数/食品接触材料</t>
-  </si>
-  <si>
-    <t>丙烯腈的特殊迁移</t>
-  </si>
-  <si>
-    <t>食品接触材料及其制品 塑料中受限物质 第3部分：食品模拟物中丙烯腈的测定/BS EN 13130-3-2004</t>
-  </si>
-  <si>
-    <t>奶嘴/食品相关产品/食品接触材料</t>
-  </si>
-  <si>
-    <t>部分项目</t>
-  </si>
-  <si>
-    <t>食品安全国家标准 奶嘴/GB 4806.2-2016</t>
-  </si>
-  <si>
-    <t>不测2,6-二叔丁基对甲苯酚迁移量、2,2-亚甲基-双-(4-甲基-6-叔丁基苯酚)迁移量、N-亚硝胺和挥发性物质/扩项</t>
-  </si>
-  <si>
-    <t>搪瓷制品/食品相关产品/食品接触材料</t>
-  </si>
-  <si>
-    <t>全部项目</t>
-  </si>
-  <si>
-    <t>食品安全国家标准 搪瓷制品/GB 4806.3-2016</t>
-  </si>
-  <si>
-    <t>消毒剂/疾病防控/消毒产品</t>
-  </si>
-  <si>
-    <t>对氯间二甲酚</t>
-  </si>
-  <si>
-    <t>酚类消毒剂卫生要求/GB/T 27947-2011</t>
-  </si>
-  <si>
-    <t>饲料/饲料/真菌毒素</t>
-  </si>
-  <si>
-    <t>脱氧雪腐镰刀菌烯醇 (呕吐毒素)</t>
-  </si>
-  <si>
-    <t>饲料中脱氧雪腐镰刀菌烯醇的测定 免疫亲和柱净化-高效液相色谱法/GB/T 30956-2014</t>
-  </si>
-  <si>
-    <t>赭曲霉毒素 A</t>
-  </si>
-  <si>
-    <t>饲料中赭曲霉毒素A的测定 免疫亲和柱净化-高效液相色谱法/GB/T 30957-2014</t>
-  </si>
-  <si>
-    <t>黄曲霉毒素B1</t>
-  </si>
-  <si>
-    <t>饲料中黄曲霉毒素、玉米赤霉烯酮和T-2毒素的测定 液相色谱-串联质谱法/NY/T 2071-2011</t>
-  </si>
-  <si>
-    <t>玉米赤霉烯酮</t>
-  </si>
-  <si>
-    <t>T-2毒素</t>
-  </si>
-  <si>
-    <t>伏马毒素(B1+B2)</t>
-  </si>
-  <si>
-    <t>饲料中伏马毒素的测定/NY/T 1970-2010</t>
-  </si>
-  <si>
-    <t>上海博优测试技术有限公司</t>
-  </si>
-  <si>
-    <t>上海市闵行区颛兴东路１２７７弄９８号</t>
-  </si>
-  <si>
-    <t>33886078</t>
-  </si>
-  <si>
-    <t>170912341028</t>
-  </si>
-  <si>
-    <t>2017-06-14</t>
-  </si>
-  <si>
-    <t>2023-06-13</t>
-  </si>
-  <si>
-    <t>环境空气/环境与环保/空气和废气</t>
-  </si>
-  <si>
-    <t>总烃、甲烷、非甲烷总烃</t>
-  </si>
-  <si>
-    <t>环境空气 总烃 甲烷和非甲烷总烃的测定 直接进样-气相色谱法/HJ604-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>上海方合正环境工程科技股份有限公司浦东分公司</t>
-  </si>
-  <si>
-    <t>上海市浦东新区庆荣路525号一层</t>
-  </si>
-  <si>
-    <t>021-50432500</t>
-  </si>
-  <si>
-    <t>170913341387</t>
-  </si>
-  <si>
-    <t>2017-01-09</t>
-  </si>
-  <si>
-    <t>2023-01-08</t>
-  </si>
-  <si>
-    <t>Ⅱ级生物安全柜/机械与设备/设备</t>
-  </si>
-  <si>
-    <t>Ⅱ级生物安全柜/YY 0569-2011(6.1)</t>
-  </si>
-  <si>
-    <t>不单独出具报告</t>
-  </si>
-  <si>
-    <t>下降气流流速</t>
-  </si>
-  <si>
-    <t>Ⅱ级生物安全柜/YY 0569-2011(6.3.7)</t>
-  </si>
-  <si>
-    <t>流入气流流速</t>
-  </si>
-  <si>
-    <t>Ⅱ级生物安全柜/YY 0569-2011(6.3.8)</t>
-  </si>
-  <si>
-    <t>高效过滤器完整性</t>
-  </si>
-  <si>
-    <t>Ⅱ级生物安全柜/YY 0569-2011(6.3.2)</t>
-  </si>
-  <si>
-    <t>气流烟雾模式</t>
-  </si>
-  <si>
-    <t>Ⅱ级生物安全柜/YY 0569-2011(6.3.9)</t>
-  </si>
-  <si>
-    <t>噪声</t>
-  </si>
-  <si>
-    <t>Ⅱ级生物安全柜/YY 0569-2011(6.3.3)</t>
-  </si>
-  <si>
-    <t>照度</t>
-  </si>
-  <si>
-    <t>Ⅱ级生物安全柜/YY 0569-2011(6.3.4)</t>
-  </si>
-  <si>
-    <t>集液槽泄漏</t>
-  </si>
-  <si>
-    <t>Ⅱ级生物安全柜/YY 0569-2011(6.3.10)</t>
-  </si>
-  <si>
-    <t>温升</t>
-  </si>
-  <si>
-    <t>Ⅱ级生物安全柜/YY 0569-2011(6.3.12)</t>
-  </si>
-  <si>
-    <t>紫外灯</t>
-  </si>
-  <si>
-    <t>Ⅱ级生物安全柜/YY 0569-2011(6.3.14)</t>
-  </si>
-  <si>
-    <t>报警和连锁系统</t>
-  </si>
-  <si>
-    <t>Ⅱ级生物安全柜/YY 0569-2011(5.3.7)</t>
-  </si>
-  <si>
-    <t>生物安全柜/机械与设备/设备</t>
-  </si>
-  <si>
-    <t>过滤器泄漏测试</t>
-  </si>
-  <si>
-    <t>生物安全柜/NSF/ANSI 49-2008(A.2)</t>
-  </si>
-  <si>
-    <t>噪声水平测试</t>
-  </si>
-  <si>
-    <t>生物安全柜/NSF/ANSI 49-2008(A.3)</t>
-  </si>
-  <si>
-    <t>光强度测试</t>
-  </si>
-  <si>
-    <t>生物安全柜/NSF/ANSI 49-2008(A.4)</t>
-  </si>
-  <si>
-    <t>下降速度测试</t>
-  </si>
-  <si>
-    <t>生物安全柜/NSF/ANSI 49-2008(A.8)</t>
-  </si>
-  <si>
-    <t>流入速度测试</t>
-  </si>
-  <si>
-    <t>生物安全柜/NSF/ANSI 49-2008(A.9)</t>
-  </si>
-  <si>
-    <t>气流烟雾模式测试</t>
-  </si>
-  <si>
-    <t>生物安全柜/NSF/ANSI 49-2008(A.10)</t>
-  </si>
-  <si>
-    <t>排液槽泄漏测试</t>
-  </si>
-  <si>
-    <t>生物安全柜/NSF/ANSI 49-2008(A.11)</t>
-  </si>
-  <si>
-    <t>洁净工作台/机械与设备/设备</t>
-  </si>
-  <si>
-    <t>洁净工作台/JG/T 292-2010(7.1)</t>
-  </si>
-  <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>洁净工作台/JG/T 292-2010(7.3)</t>
-  </si>
-  <si>
-    <t>上海华慧检测技术有限公司</t>
-  </si>
-  <si>
-    <t>上海市嘉定区汇善路685号2幢4层401-410室</t>
-  </si>
-  <si>
-    <t>021-69913579</t>
-  </si>
-  <si>
-    <t>170902341206</t>
-  </si>
-  <si>
-    <t>2017-11-28</t>
-  </si>
-  <si>
-    <t>2023-11-27</t>
-  </si>
-  <si>
-    <t>建筑材料及制品/建筑材料及制品防火性能</t>
-  </si>
-  <si>
-    <t>燃烧性能分级</t>
-  </si>
-  <si>
-    <t>《建筑材料及制品燃烧性能分级》/GB  8624-2012</t>
-  </si>
-  <si>
-    <t>不测：电器及家具制品用泡沫塑料、软质家具及硬质家具的燃烧性能分级</t>
-  </si>
-  <si>
-    <t>不燃性</t>
-  </si>
-  <si>
-    <t>《建筑材料不燃性试验方法》/GB/T 5464-2010</t>
-  </si>
-  <si>
-    <t>燃烧热值</t>
-  </si>
-  <si>
-    <t>《建筑材料及制品的燃烧性能 燃烧热值的测定》/GB/T 14402-2007</t>
-  </si>
-  <si>
-    <t>可燃性</t>
-  </si>
-  <si>
-    <t>《建筑材料可燃性试验方法》/GB/T 8626-2007</t>
-  </si>
-  <si>
-    <t>烟密度等级</t>
-  </si>
-  <si>
-    <t>《建筑材料燃烧或分解的烟密度试验方法》/GB/T 8627-2007</t>
-  </si>
-  <si>
-    <t>单体燃烧试验</t>
-  </si>
-  <si>
-    <t>《建筑材料或制品的单体燃烧试验》/GB/T 20284-2006</t>
-  </si>
-  <si>
-    <t>产烟性能</t>
-  </si>
-  <si>
-    <t>燃烧滴落物/微粒</t>
-  </si>
-  <si>
-    <t>铺地材料/建筑材料及制品防火性能</t>
-  </si>
-  <si>
-    <t>临界热辐射通量</t>
-  </si>
-  <si>
-    <t>《铺地材料的燃烧性能测定 辐射热源法》/GB/T 11785-2005</t>
-  </si>
-  <si>
-    <t>产烟量</t>
-  </si>
-  <si>
-    <t>纺织品/建筑材料及制品防火性能</t>
-  </si>
-  <si>
-    <t>氧指数</t>
-  </si>
-  <si>
-    <t>《纺织品 燃烧性能试验 氧指数法》/GB/T 5454-1997</t>
-  </si>
-  <si>
-    <t>只测：顶面点燃法</t>
-  </si>
-  <si>
-    <t>垂直燃烧性能</t>
-  </si>
-  <si>
-    <t>《纺织品 燃烧性能垂直方向损毁长度、阴燃和续燃时间的测定》/GB/T 5455-2014</t>
-  </si>
-  <si>
-    <t>塑料/建筑材料及制品防火性能</t>
-  </si>
-  <si>
-    <t>《塑料 用氧指数法测定燃烧行为 第2部分：室温试验》/GB/T2406.2-2009</t>
-  </si>
-  <si>
-    <t>水平垂直燃烧性能</t>
-  </si>
-  <si>
-    <t>《塑料 燃烧性能的测定 水平法和垂直法》/GB/T 2408-2008</t>
-  </si>
-  <si>
-    <t>设备和电器零件用塑料/建筑材料及制品防火性能</t>
-  </si>
-  <si>
-    <t>《设备和电器零件用塑料材料的燃烧性试验》/UL94-2015-01</t>
-  </si>
-  <si>
-    <t>只测：第7章和第8章</t>
-  </si>
-  <si>
-    <t>电子电工产品/建筑材料及制品防火性能</t>
-  </si>
-  <si>
-    <t>《电工电子产品着火危险试验 第16部分：试验火焰 50W水平与垂直火焰试验方法》/GB/T 5169.16-2008</t>
-  </si>
-  <si>
-    <t>上海明华电力技术工程有限公司</t>
-  </si>
-  <si>
-    <t>上海市杨浦区杨树浦路2800号326幢</t>
-  </si>
-  <si>
-    <t>25102215</t>
-  </si>
-  <si>
-    <t>160921341138</t>
-  </si>
-  <si>
-    <t>2016-12-08</t>
-  </si>
-  <si>
-    <t>2022-12-07</t>
-  </si>
-  <si>
-    <t>固定污染源废气/环境与环保/空气和废气</t>
-  </si>
-  <si>
-    <t>二氧化硫</t>
-  </si>
-  <si>
-    <t>固定污染源废气 二氧化硫的测定 定电位电解法/HJ 57-2017</t>
-  </si>
-  <si>
-    <t>上海源本食品质量检验有限公司（上海市营养食品质量监督检验站）</t>
-  </si>
-  <si>
-    <t>上海市杨浦区济宁路28路</t>
-  </si>
-  <si>
-    <t>021-65471165</t>
-  </si>
-  <si>
-    <t>(2017)沪质监认字086号</t>
-  </si>
-  <si>
-    <t>2020-06-13</t>
-  </si>
-  <si>
-    <t>粮谷/食品检验农药残留参数</t>
-  </si>
-  <si>
-    <t>甲基硫菌磷)甲基立枯磷(</t>
-  </si>
-  <si>
-    <t>食品安全国家标准 粮谷中475种农药及相关化学品残留量的测定气相色谱-质谱法/GB 23200.9-2016</t>
-  </si>
-  <si>
-    <t>无/扩项</t>
-  </si>
-  <si>
-    <t>水果和蔬菜/食品检验农药残留参数</t>
-  </si>
-  <si>
-    <t>氯唑磷</t>
-  </si>
-  <si>
-    <t>水果和蔬菜中450种农药及相关化学品残留量的测定 液相色谱-串联质谱法/GB/T 20769-2008</t>
-  </si>
-  <si>
-    <t>环嗪酮</t>
-  </si>
-  <si>
-    <t>稻谷/食品检验农药残留参数</t>
-  </si>
-  <si>
-    <t>三环唑</t>
-  </si>
-  <si>
-    <t>稻谷中三环唑残留量的测定/GB/T 5009.115-2003</t>
-  </si>
-  <si>
-    <t>噻菌灵</t>
-  </si>
-  <si>
-    <t>霜霉威和霜霉威盐酸盐</t>
-  </si>
-  <si>
-    <t>四螨嗪</t>
-  </si>
-  <si>
-    <t>烯酰吗啉</t>
-  </si>
-  <si>
-    <t>唑虫酰胺</t>
-  </si>
-  <si>
-    <t>啶氧菌酯</t>
-  </si>
-  <si>
-    <t>多杀霉素)多杀菌素(</t>
-  </si>
-  <si>
-    <t>氟吡甲禾灵</t>
-  </si>
-  <si>
-    <t>噻唑)硫(磷</t>
-  </si>
-  <si>
-    <t>霜脲氰</t>
-  </si>
-  <si>
-    <t>烟碱</t>
-  </si>
-  <si>
-    <t>乙霉威</t>
-  </si>
-  <si>
-    <t>乙嘧酚)乙菌定(</t>
-  </si>
-  <si>
-    <t>鱼藤酮</t>
-  </si>
-  <si>
-    <t>苯螨特)苯满特(</t>
-  </si>
-  <si>
-    <t>苯嗪草酮)苯噻草酮(</t>
-  </si>
-  <si>
-    <t>170900341459</t>
+    <t>胶粘剂/化工产品/胶黏剂</t>
+  </si>
+  <si>
+    <t>正己烷</t>
+  </si>
+  <si>
+    <t>鞋和箱包用胶粘剂/GB 19340-2014 附录B</t>
+  </si>
+  <si>
+    <t>游离甲醛</t>
+  </si>
+  <si>
+    <t>建筑胶粘剂有害物质限量/GB 30982-2014 附录A</t>
+  </si>
+  <si>
+    <t>乙苯</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 胶粘剂，室内装饰装修材料 胶粘剂中有害物质限量/HJ 2541-2016章节6.3,GB 18583-2008 附录C</t>
+  </si>
+  <si>
+    <t>丙酮</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 胶粘剂，室内装饰装修材料 胶粘剂中有害物质限量/HJ 2541-2016章节6.9,GB 18583-2008 附录B</t>
+  </si>
+  <si>
+    <t>纺织品/日用消费品/纺织产品</t>
+  </si>
+  <si>
+    <t>邻苯二甲酸酯</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 纺织产品，纺织品 邻苯二甲酸酯的测定/HJ 2546-2016章节6.12,GB/T 20388-2006</t>
+  </si>
+  <si>
+    <t>多环芳烃</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 纺织产品，纺织品 多环芳烃的测定/HJ 2546-2016章节6.13,GB/T 28189-2011</t>
+  </si>
+  <si>
+    <t>全氟辛酸)PFOA(、全氟辛烷磺酰基化合物)PFOS(</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 纺织产品，纺织品中全氟辛烷磺酸和全氟辛酸的测定液相色谱-串联质谱法/HJ 2546-2016章节6.16,SN/T 2842-2011</t>
+  </si>
+  <si>
+    <t>纺织染整助剂/日用消费品/纺织产品</t>
+  </si>
+  <si>
+    <t>辛基酚)OP(、壬基酚)NP(</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 纺织产品，纺织染整助剂中烷基苯酚及烷基苯酚聚氧乙烯醚的测定 高效液相色谱/质谱法/HJ 2546-2016章节6.14,GB/T 23972-2009</t>
+  </si>
+  <si>
+    <t>富马酸二甲酯)DMF(</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 纺织产品，纺织品 富马酸二甲酯的测定/HJ 2546-2016章节6.17,GB/T 28190-2011</t>
+  </si>
+  <si>
+    <t>印花色浆/日用消费品/纺织产品</t>
+  </si>
+  <si>
+    <t>挥发性有机化合物)VOCs(</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 纺织产品，色漆和清漆 挥发性有机化合物(VOC)含量的测定 气相色谱法/HJ 2546-2016章节6.2,GB/T 23986-2009</t>
+  </si>
+  <si>
+    <t>纺织产品/日用消费品/纺织产品</t>
+  </si>
+  <si>
+    <t>四氯苯酚</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 纺织产品，纺织品 含氯苯酚的测定 第1部分:气相色谱-质谱法/HJ 2546-2016章节6.7,GB/T 18414.1-2006</t>
+  </si>
+  <si>
+    <t>皮革和毛皮/日用消费品/皮革制品</t>
+  </si>
+  <si>
+    <t>有机锡化合物</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 皮革和合成革，皮革和毛皮 化学试验 有机锡化合物的测定/HJ 507-2009章节7.10,GB/T 22932-2008</t>
+  </si>
+  <si>
+    <t>皮革和毛皮 化学试验 重金属含量的测定/GB/T 22930-2008</t>
+  </si>
+  <si>
+    <t>皮革和合成革/日用消费品/皮革制品</t>
+  </si>
+  <si>
+    <t>重金属含量</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 皮革和合成革，皮革和毛皮 化学试验 重金属含量的测定/HJ 507-2009章节7.4,GB/T 22930-2008</t>
+  </si>
+  <si>
+    <t>只测镉、汞、锑、铅、砷、镍、钴、铜/扩项</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 皮革和合成革，皮革和毛皮 化学试验 五氯苯酚含量的测定/HJ 507-2009章节7.5,GB/T 22808-2008</t>
+  </si>
+  <si>
+    <t>4-氨基偶氮苯</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 皮革和合成革，皮革和毛皮 化学试验 禁用偶氮染料的测定/HJ 507-2009章节7.7,GB/T 19942-2005</t>
+  </si>
+  <si>
+    <t>合成革/日用消费品/皮革制品</t>
+  </si>
+  <si>
+    <t>挥发性有机化合物)VOC(</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 皮革和合成革/HJ 507-2009 附录F</t>
+  </si>
+  <si>
+    <t>气味</t>
+  </si>
+  <si>
+    <t>环境标志产品技术要求 皮革和合成革/HJ 507-2009 附录E</t>
+  </si>
+  <si>
+    <t>不能单独出报告/扩项</t>
+  </si>
+  <si>
+    <t>皮革/日用消费品/皮革制品</t>
+  </si>
+  <si>
+    <t>皮革 气味的测定/QB/T 2725-2005</t>
+  </si>
+  <si>
+    <t>上海汇环环境检测有限公司</t>
+  </si>
+  <si>
+    <t>上海市浦东新区惠南镇城南村听潮南路４４１号</t>
+  </si>
+  <si>
+    <t>68013000</t>
+  </si>
+  <si>
+    <t>170921341437</t>
+  </si>
+  <si>
+    <t>2017-04-14</t>
+  </si>
+  <si>
+    <t>2023-04-13</t>
+  </si>
+  <si>
+    <t>水质/环境与环保/水和废水</t>
+  </si>
+  <si>
+    <t>石油类和动植物油</t>
+  </si>
+  <si>
+    <t>水质 石油类和动植物油的测定 红外分光光度法/HJ 637-2018</t>
+  </si>
+  <si>
+    <t>只测工业废水和生活污水</t>
+  </si>
+  <si>
+    <t>上海经威能源计量中心</t>
+  </si>
+  <si>
+    <t>长寿路130号3幢3层</t>
+  </si>
+  <si>
+    <t>51601300</t>
+  </si>
+  <si>
+    <t>170921341030</t>
+  </si>
+  <si>
+    <t>2017-04-12</t>
+  </si>
+  <si>
+    <t>2023-04-11</t>
+  </si>
+  <si>
+    <t>用电单位/企业电平衡测试</t>
+  </si>
+  <si>
+    <t>电能利用率</t>
+  </si>
+  <si>
+    <t>用电设备电能平衡通则/GB/T8222-2008</t>
+  </si>
+  <si>
+    <t>（0～500）A</t>
+  </si>
+  <si>
+    <t>评价企业合理用电技术导则/GB/T3485-1998</t>
+  </si>
+  <si>
+    <t>三相异步电动机/企业电平衡测试</t>
+  </si>
+  <si>
+    <t>三相异步电动机经济运行/GB/T12497-2006</t>
+  </si>
+  <si>
+    <t>泵类/企业电平衡测试</t>
+  </si>
+  <si>
+    <t>泵类液体输送系统电能平衡的测试与计算方法/GB/T13468-2013</t>
+  </si>
+  <si>
+    <t>空压机/企业电平衡测试</t>
+  </si>
+  <si>
+    <t>交流电气传动风机（泵类、空气压缩机）系统经济运行通则/GB/T13466-2006</t>
+  </si>
+  <si>
+    <t>空气压缩机/企业电平衡测试</t>
+  </si>
+  <si>
+    <t>容积式空气压缩机能效限定值及能效等级/GB19153-2009</t>
+  </si>
+  <si>
+    <t>空气压缩机组及供气系统节能监测方法/GB/T16665-1996</t>
+  </si>
+  <si>
+    <t>泵类液体输送系统节能监测方法/GB/T16666-2012</t>
+  </si>
+  <si>
+    <t>面积功率密度</t>
+  </si>
+  <si>
+    <t>照明测量方法/GB/T5700-2008</t>
+  </si>
+  <si>
+    <t>用水企业/水平衡测试</t>
+  </si>
+  <si>
+    <t>单位用水重复利用率</t>
+  </si>
+  <si>
+    <t>节水型企业评价导则/GB/T7119-2006</t>
+  </si>
+  <si>
+    <t>(0～100)℃</t>
+  </si>
+  <si>
+    <t>企业水平衡测试通则/GB/T12452-2008</t>
+  </si>
+  <si>
+    <t>冷却塔/水平衡测试</t>
+  </si>
+  <si>
+    <t>冷却塔热力性能</t>
+  </si>
+  <si>
+    <t>玻璃纤维增强塑料冷却塔第一部分：中小型玻璃纤维增强塑料冷却塔/GB/T7190.1-2008</t>
+  </si>
+  <si>
+    <t>冷却塔及其系统经济运行管理/DB31/T204-2010</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>空气和废气/空气和废气</t>
+  </si>
+  <si>
+    <t>总悬浮颗粒物(TSP)</t>
+  </si>
+  <si>
+    <t>环境空气 总悬浮颗粒物的测定 重量法/GB/T 15432-1995</t>
+  </si>
+  <si>
+    <t>PM10</t>
+  </si>
+  <si>
+    <t>环境空气 PM10和PM2.5的测定 重量法/HJ618-2011</t>
+  </si>
+  <si>
+    <t>烟粉尘</t>
+  </si>
+  <si>
+    <t>固定污染源排气中颗粒物测定与气态污染物采样方法/GB/T16157-1996</t>
+  </si>
+  <si>
+    <t>锅炉烟尘测试方法规定/GB/T5468-1991</t>
+  </si>
+  <si>
+    <t>污染源废气监测技术规范/HJ/T 397-2007</t>
+  </si>
+  <si>
+    <t>固定污染源 低浓度颗粒物质量浓度测定 手工重量法/ISO 12141</t>
+  </si>
+  <si>
+    <t>烟气参数)流速、烟温、氧量、含湿量(</t>
+  </si>
+  <si>
+    <t>固定污染物排气中颗粒物测定与气态污染物采样方法/GB/T 16157-1996</t>
   </si>
 </sst>
 </file>
@@ -1125,25 +1247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,19 +1310,19 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1241,19 +1345,19 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1276,19 +1380,19 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
         <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1311,19 +1415,19 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1346,19 +1450,19 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1381,19 +1485,19 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1416,19 +1520,19 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
         <v>32</v>
       </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1451,19 +1555,19 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1486,19 +1590,19 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1521,19 +1625,19 @@
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1556,19 +1660,19 @@
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1591,19 +1695,19 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1626,19 +1730,19 @@
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1661,33 +1765,33 @@
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
@@ -1696,33 +1800,33 @@
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" t="s">
         <v>49</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>50</v>
       </c>
-      <c r="J16" t="s">
-        <v>51</v>
-      </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1731,33 +1835,33 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -1766,33 +1870,33 @@
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -1801,33 +1905,33 @@
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
         <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -1836,33 +1940,33 @@
         <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
@@ -1871,707 +1975,707 @@
         <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="K23" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" t="s">
         <v>67</v>
       </c>
-      <c r="B25" t="s">
+      <c r="K25" t="s">
         <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25" t="s">
-        <v>84</v>
-      </c>
-      <c r="J25" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" t="s">
         <v>68</v>
-      </c>
-      <c r="C26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" t="s">
-        <v>84</v>
-      </c>
-      <c r="J26" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" t="s">
         <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" t="s">
-        <v>88</v>
-      </c>
-      <c r="K27" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="J35" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="I36" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="J36" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K36" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H37" t="s">
         <v>106</v>
       </c>
       <c r="I37" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" t="s">
         <v>109</v>
-      </c>
-      <c r="J37" t="s">
-        <v>110</v>
-      </c>
-      <c r="K37" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H38" t="s">
         <v>106</v>
       </c>
       <c r="I38" t="s">
+        <v>110</v>
+      </c>
+      <c r="J38" t="s">
         <v>111</v>
       </c>
-      <c r="J38" t="s">
-        <v>112</v>
-      </c>
       <c r="K38" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H39" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I39" t="s">
+        <v>110</v>
+      </c>
+      <c r="J39" t="s">
         <v>113</v>
       </c>
-      <c r="J39" t="s">
-        <v>112</v>
-      </c>
       <c r="K39" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H40" t="s">
         <v>106</v>
       </c>
       <c r="I40" t="s">
+        <v>110</v>
+      </c>
+      <c r="J40" t="s">
         <v>114</v>
       </c>
-      <c r="J40" t="s">
-        <v>112</v>
-      </c>
       <c r="K40" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H41" t="s">
         <v>106</v>
@@ -2583,2737 +2687,2667 @@
         <v>116</v>
       </c>
       <c r="K41" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" t="s">
         <v>117</v>
       </c>
-      <c r="B42" t="s">
+      <c r="I42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J42" t="s">
         <v>118</v>
       </c>
-      <c r="C42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" t="s">
-        <v>123</v>
-      </c>
-      <c r="I42" t="s">
-        <v>124</v>
-      </c>
-      <c r="J42" t="s">
-        <v>125</v>
-      </c>
       <c r="K42" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F43" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I43" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="J43" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="K43" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F44" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H44" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I44" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="J44" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="K44" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="J45" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="K45" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F46" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I46" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="J46" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="K46" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" t="s">
+        <v>126</v>
+      </c>
+      <c r="J47" t="s">
         <v>127</v>
       </c>
-      <c r="B47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" t="s">
-        <v>129</v>
-      </c>
-      <c r="D47" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" t="s">
-        <v>133</v>
-      </c>
-      <c r="I47" t="s">
-        <v>142</v>
-      </c>
-      <c r="J47" t="s">
-        <v>143</v>
-      </c>
       <c r="K47" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" t="s">
         <v>128</v>
       </c>
-      <c r="C48" t="s">
+      <c r="I48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" t="s">
         <v>129</v>
       </c>
-      <c r="D48" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" t="s">
-        <v>132</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s">
-        <v>133</v>
-      </c>
-      <c r="I48" t="s">
-        <v>144</v>
-      </c>
-      <c r="J48" t="s">
-        <v>145</v>
-      </c>
       <c r="K48" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" t="s">
+        <v>117</v>
+      </c>
+      <c r="I49" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" t="s">
         <v>130</v>
       </c>
-      <c r="E49" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" t="s">
-        <v>132</v>
-      </c>
-      <c r="G49" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" t="s">
-        <v>133</v>
-      </c>
-      <c r="I49" t="s">
-        <v>146</v>
-      </c>
-      <c r="J49" t="s">
-        <v>147</v>
-      </c>
       <c r="K49" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" t="s">
+        <v>106</v>
+      </c>
+      <c r="I50" t="s">
+        <v>126</v>
+      </c>
+      <c r="J50" t="s">
         <v>131</v>
       </c>
-      <c r="F50" t="s">
-        <v>132</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s">
-        <v>133</v>
-      </c>
-      <c r="I50" t="s">
-        <v>148</v>
-      </c>
-      <c r="J50" t="s">
-        <v>149</v>
-      </c>
       <c r="K50" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G51" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" t="s">
         <v>132</v>
       </c>
-      <c r="G51" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
+        <v>126</v>
+      </c>
+      <c r="J51" t="s">
         <v>133</v>
       </c>
-      <c r="I51" t="s">
-        <v>150</v>
-      </c>
-      <c r="J51" t="s">
-        <v>151</v>
-      </c>
       <c r="K51" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" t="s">
         <v>128</v>
       </c>
-      <c r="C52" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F52" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s">
-        <v>133</v>
-      </c>
       <c r="I52" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="J52" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="K52" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" t="s">
         <v>128</v>
       </c>
-      <c r="C53" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53" t="s">
-        <v>132</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s">
-        <v>133</v>
-      </c>
       <c r="I53" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="J53" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K53" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H54" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="I54" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="J54" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="K54" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H55" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="I55" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="J55" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="K55" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H56" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="I56" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="J56" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="K56" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F57" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H57" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I57" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="J57" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="K57" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F58" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H58" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I58" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="J58" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K58" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D59" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F59" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I59" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="J59" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="K59" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F60" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I60" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="J60" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="K60" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F61" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H61" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="I61" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="J61" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="K61" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F62" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H62" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="I62" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="J62" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="K62" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F63" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H63" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="I63" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="J63" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="K63" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F64" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H64" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="I64" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="J64" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="K64" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F65" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H65" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="I65" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="J65" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="K65" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E66" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H66" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="I66" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="J66" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="K66" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F67" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H67" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="I67" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="J67" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="K67" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D68" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E68" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F68" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H68" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="I68" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="J68" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="K68" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D69" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F69" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H69" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="I69" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="J69" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="K69" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F70" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H70" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="I70" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="J70" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="K70" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" t="s">
+        <v>148</v>
+      </c>
+      <c r="G71" t="s">
+        <v>105</v>
+      </c>
+      <c r="H71" t="s">
+        <v>174</v>
+      </c>
+      <c r="I71" t="s">
         <v>175</v>
       </c>
-      <c r="B71" t="s">
+      <c r="J71" t="s">
         <v>176</v>
       </c>
-      <c r="C71" t="s">
-        <v>177</v>
-      </c>
-      <c r="D71" t="s">
-        <v>178</v>
-      </c>
-      <c r="E71" t="s">
-        <v>179</v>
-      </c>
-      <c r="F71" t="s">
-        <v>180</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s">
-        <v>197</v>
-      </c>
-      <c r="I71" t="s">
-        <v>198</v>
-      </c>
-      <c r="J71" t="s">
-        <v>199</v>
-      </c>
       <c r="K71" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" t="s">
+        <v>148</v>
+      </c>
+      <c r="G72" t="s">
+        <v>105</v>
+      </c>
+      <c r="H72" t="s">
         <v>177</v>
       </c>
-      <c r="D72" t="s">
+      <c r="I72" t="s">
         <v>178</v>
       </c>
-      <c r="E72" t="s">
+      <c r="J72" t="s">
         <v>179</v>
       </c>
-      <c r="F72" t="s">
-        <v>180</v>
-      </c>
-      <c r="G72" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" t="s">
-        <v>197</v>
-      </c>
-      <c r="I72" t="s">
-        <v>200</v>
-      </c>
-      <c r="J72" t="s">
-        <v>199</v>
-      </c>
       <c r="K72" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D73" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73" t="s">
+        <v>148</v>
+      </c>
+      <c r="G73" t="s">
+        <v>105</v>
+      </c>
+      <c r="H73" t="s">
+        <v>180</v>
+      </c>
+      <c r="I73" t="s">
         <v>178</v>
       </c>
-      <c r="E73" t="s">
-        <v>179</v>
-      </c>
-      <c r="F73" t="s">
-        <v>180</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" t="s">
-        <v>201</v>
-      </c>
-      <c r="I73" t="s">
-        <v>202</v>
-      </c>
       <c r="J73" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="K73" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" t="s">
+        <v>147</v>
+      </c>
+      <c r="F74" t="s">
+        <v>148</v>
+      </c>
+      <c r="G74" t="s">
+        <v>105</v>
+      </c>
+      <c r="H74" t="s">
         <v>177</v>
       </c>
-      <c r="D74" t="s">
-        <v>178</v>
-      </c>
-      <c r="E74" t="s">
-        <v>179</v>
-      </c>
-      <c r="F74" t="s">
-        <v>180</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" t="s">
-        <v>201</v>
-      </c>
       <c r="I74" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="J74" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="K74" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E75" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H75" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="I75" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="J75" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="K75" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H76" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="I76" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="J76" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="K76" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D77" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E77" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F77" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H77" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="I77" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="J77" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="K77" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D78" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E78" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F78" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H78" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I78" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="J78" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="K78" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="E79" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="F79" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H79" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="I79" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="J79" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="K79" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B80" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C80" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E80" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F80" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H80" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="I80" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="J80" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="K80" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C81" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E81" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F81" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H81" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="I81" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="J81" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="K81" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B82" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C82" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E82" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F82" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H82" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="I82" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="J82" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="K82" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C83" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D83" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E83" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F83" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H83" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="I83" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="J83" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="K83" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B84" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C84" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E84" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F84" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H84" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="I84" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="J84" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="K84" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B85" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C85" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D85" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E85" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F85" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H85" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="I85" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="J85" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="K85" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B86" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C86" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D86" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E86" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F86" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H86" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="I86" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="J86" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="K86" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C87" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D87" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E87" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F87" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H87" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="I87" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="J87" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K87" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B88" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C88" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D88" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E88" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F88" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H88" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="I88" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="J88" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="K88" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" t="s">
+        <v>191</v>
+      </c>
+      <c r="E89" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" t="s">
+        <v>193</v>
+      </c>
+      <c r="G89" t="s">
+        <v>105</v>
+      </c>
+      <c r="H89" t="s">
         <v>225</v>
       </c>
-      <c r="B89" t="s">
+      <c r="I89" t="s">
         <v>226</v>
       </c>
-      <c r="C89" t="s">
+      <c r="J89" t="s">
         <v>227</v>
       </c>
-      <c r="D89" t="s">
-        <v>228</v>
-      </c>
-      <c r="E89" t="s">
-        <v>121</v>
-      </c>
-      <c r="F89" t="s">
-        <v>229</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" t="s">
-        <v>234</v>
-      </c>
-      <c r="I89" t="s">
-        <v>246</v>
-      </c>
-      <c r="J89" t="s">
-        <v>236</v>
-      </c>
       <c r="K89" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" t="s">
+        <v>190</v>
+      </c>
+      <c r="D90" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" t="s">
+        <v>193</v>
+      </c>
+      <c r="G90" t="s">
+        <v>105</v>
+      </c>
+      <c r="H90" t="s">
         <v>225</v>
       </c>
-      <c r="B90" t="s">
-        <v>226</v>
-      </c>
-      <c r="C90" t="s">
-        <v>227</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="I90" t="s">
+        <v>195</v>
+      </c>
+      <c r="J90" t="s">
         <v>228</v>
       </c>
-      <c r="E90" t="s">
-        <v>121</v>
-      </c>
-      <c r="F90" t="s">
-        <v>229</v>
-      </c>
-      <c r="G90" t="s">
-        <v>17</v>
-      </c>
-      <c r="H90" t="s">
-        <v>234</v>
-      </c>
-      <c r="I90" t="s">
-        <v>247</v>
-      </c>
-      <c r="J90" t="s">
-        <v>236</v>
-      </c>
       <c r="K90" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D91" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E91" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F91" t="s">
+        <v>193</v>
+      </c>
+      <c r="G91" t="s">
+        <v>105</v>
+      </c>
+      <c r="H91" t="s">
         <v>229</v>
       </c>
-      <c r="G91" t="s">
-        <v>17</v>
-      </c>
-      <c r="H91" t="s">
-        <v>234</v>
-      </c>
       <c r="I91" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="J91" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K91" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B92" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D92" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E92" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F92" t="s">
+        <v>193</v>
+      </c>
+      <c r="G92" t="s">
+        <v>105</v>
+      </c>
+      <c r="H92" t="s">
         <v>229</v>
       </c>
-      <c r="G92" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" t="s">
-        <v>234</v>
-      </c>
       <c r="I92" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="J92" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K92" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C93" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D93" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E93" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F93" t="s">
+        <v>193</v>
+      </c>
+      <c r="G93" t="s">
+        <v>105</v>
+      </c>
+      <c r="H93" t="s">
         <v>229</v>
       </c>
-      <c r="G93" t="s">
-        <v>17</v>
-      </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>234</v>
       </c>
-      <c r="I93" t="s">
-        <v>250</v>
-      </c>
       <c r="J93" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K93" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E94" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F94" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H94" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I94" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="J94" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K94" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C95" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D95" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E95" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F95" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I95" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="J95" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K95" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="B96" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="C96" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="D96" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="E96" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F96" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H96" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="I96" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="J96" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K96" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B97" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="C97" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="D97" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="E97" t="s">
-        <v>121</v>
+        <v>248</v>
       </c>
       <c r="F97" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H97" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="I97" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J97" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="K97" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B98" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C98" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D98" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="E98" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F98" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H98" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="I98" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="J98" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="K98" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C99" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D99" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="E99" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F99" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="G99" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H99" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="I99" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="J99" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="K99" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B100" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C100" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D100" t="s">
         <v>257</v>
       </c>
       <c r="E100" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F100" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H100" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="I100" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="J100" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="K100" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B101" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C101" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D101" t="s">
         <v>257</v>
       </c>
       <c r="E101" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F101" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G101" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H101" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="I101" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="J101" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="K101" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B102" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C102" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D102" t="s">
         <v>257</v>
       </c>
       <c r="E102" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G102" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H102" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="I102" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="J102" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="K102" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B103" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C103" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D103" t="s">
         <v>257</v>
       </c>
       <c r="E103" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G103" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H103" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="I103" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="J103" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="K103" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B104" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C104" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D104" t="s">
         <v>257</v>
       </c>
       <c r="E104" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G104" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H104" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="I104" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="J104" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="K104" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B105" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C105" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D105" t="s">
         <v>257</v>
       </c>
       <c r="E105" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F105" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G105" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H105" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="I105" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="J105" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="K105" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B106" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C106" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D106" t="s">
         <v>257</v>
       </c>
       <c r="E106" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G106" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="I106" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="J106" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="K106" t="s">
-        <v>233</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B107" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C107" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D107" t="s">
         <v>257</v>
       </c>
       <c r="E107" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F107" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G107" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H107" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="I107" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="J107" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="K107" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B108" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C108" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D108" t="s">
         <v>257</v>
       </c>
       <c r="E108" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G108" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H108" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="I108" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="J108" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="K108" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B109" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C109" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D109" t="s">
         <v>257</v>
       </c>
       <c r="E109" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F109" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H109" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="I109" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="J109" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="K109" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B110" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C110" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D110" t="s">
         <v>257</v>
       </c>
       <c r="E110" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F110" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G110" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H110" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="I110" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="J110" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="K110" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B111" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C111" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D111" t="s">
         <v>257</v>
       </c>
       <c r="E111" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F111" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G111" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H111" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="I111" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="J111" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="K111" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C112" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D112" t="s">
         <v>257</v>
       </c>
       <c r="E112" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F112" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G112" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H112" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="I112" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="J112" t="s">
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="K112" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C113" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D113" t="s">
         <v>257</v>
       </c>
       <c r="E113" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F113" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G113" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H113" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="I113" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="J113" t="s">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="K113" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B114" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C114" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D114" t="s">
         <v>257</v>
       </c>
       <c r="E114" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H114" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="I114" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="J114" t="s">
-        <v>236</v>
+        <v>294</v>
       </c>
       <c r="K114" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C115" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D115" t="s">
         <v>257</v>
       </c>
       <c r="E115" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F115" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G115" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H115" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="I115" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="J115" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="K115" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B116" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C116" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D116" t="s">
         <v>257</v>
       </c>
       <c r="E116" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F116" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G116" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H116" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="I116" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="J116" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="K116" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="B117" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="C117" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D117" t="s">
         <v>257</v>
       </c>
       <c r="E117" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="F117" t="s">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="G117" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="H117" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="I117" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="J117" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="K117" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" t="s">
-        <v>225</v>
-      </c>
-      <c r="B118" t="s">
-        <v>226</v>
-      </c>
-      <c r="C118" t="s">
-        <v>227</v>
-      </c>
-      <c r="D118" t="s">
-        <v>257</v>
-      </c>
-      <c r="E118" t="s">
-        <v>121</v>
-      </c>
-      <c r="F118" t="s">
-        <v>122</v>
-      </c>
-      <c r="G118" t="s">
-        <v>17</v>
-      </c>
-      <c r="H118" t="s">
-        <v>234</v>
-      </c>
-      <c r="I118" t="s">
-        <v>255</v>
-      </c>
-      <c r="J118" t="s">
-        <v>236</v>
-      </c>
-      <c r="K118" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" t="s">
-        <v>225</v>
-      </c>
-      <c r="B119" t="s">
-        <v>226</v>
-      </c>
-      <c r="C119" t="s">
-        <v>227</v>
-      </c>
-      <c r="D119" t="s">
-        <v>257</v>
-      </c>
-      <c r="E119" t="s">
-        <v>121</v>
-      </c>
-      <c r="F119" t="s">
-        <v>122</v>
-      </c>
-      <c r="G119" t="s">
-        <v>17</v>
-      </c>
-      <c r="H119" t="s">
-        <v>234</v>
-      </c>
-      <c r="I119" t="s">
-        <v>256</v>
-      </c>
-      <c r="J119" t="s">
-        <v>236</v>
-      </c>
-      <c r="K119" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
